--- a/Task Report/excell/Work list/Empty Daily work.xlsx
+++ b/Task Report/excell/Work list/Empty Daily work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shahid Raza\Capitall\VSA project functionality\Task Report\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shahid Raza\Capitall\VSA project functionality\Task Report\excell\Work list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9153A-687D-4ABA-880A-4AE067F78E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418029AC-86C4-4BF6-84FE-ED2E67A9705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F449CF3F-2305-43BB-B3E0-B1B1DFD80D34}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>Done</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Module</t>
   </si>
@@ -51,27 +48,6 @@
   </si>
   <si>
     <t>Task Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timesheet Create module </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove messgae from timesheet create page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assignment create problem fixed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refresh all input field on change timesheet date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client want to select assignment according Asssignment closed date and open assignment </t>
-  </si>
-  <si>
-    <t>Filter problem fixed  like date 01-01-2024</t>
-  </si>
-  <si>
-    <t>user name rajdeo timesheet (Request done ) problem fixed</t>
   </si>
 </sst>
 </file>
@@ -115,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,11 +111,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CF1CAA-9826-45C3-A953-A352A8A60D63}">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,57 +449,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45352</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -538,31 +503,19 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45353</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="7"/>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -586,7 +539,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -610,7 +563,7 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -622,7 +575,7 @@
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8"/>
@@ -652,7 +605,7 @@
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -664,7 +617,7 @@
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -676,7 +629,7 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -688,7 +641,7 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="4"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -700,19 +653,17 @@
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -830,13 +781,13 @@
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
@@ -879,13 +830,13 @@
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
@@ -918,7 +869,7 @@
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -936,7 +887,7 @@
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -954,7 +905,7 @@
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -972,7 +923,7 @@
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -990,7 +941,7 @@
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1008,7 +959,7 @@
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1032,7 +983,7 @@
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1068,7 +1019,7 @@
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -1079,195 +1030,195 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="1"/>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="1"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="1"/>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="1"/>
       <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="5"/>
-      <c r="G116" s="6"/>
+      <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="5"/>
-      <c r="G117" s="6"/>
+      <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="5"/>
-      <c r="G118" s="6"/>
+      <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
@@ -1495,19 +1446,16 @@
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="4"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="4"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
@@ -1831,18 +1779,12 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="1"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
@@ -1852,15 +1794,6 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A240" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
